--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2007 (P07).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2007 (P07).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,196 +444,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Condemn</t>
+          <t>('Condemn', ['{W}', 'Instant', 'Put target attacking creature on the bottom of its owner’s library. Its controller gains life equal to its toughness.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{W}</t>
+          <t>('Cruel Edict', ['{1}{B}', 'Sorcery', 'Target opponent sacrifices a creature.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Disenchant', ['{1}{W}', 'Instant', 'Destroy target artifact or enchantment.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Put target attacking creature on the bottom of its owner’s library. Its controller gains life equal to its toughness.</t>
+          <t>('Mortify', ['{1}{W}{B}', 'Instant', 'Destroy target creature or enchantment.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cruel Edict</t>
+          <t>('Psionic Blast', ['{2}{U}', 'Instant', 'Psionic Blast deals 4 damage to any target and 2 damage to you.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{1}{B}</t>
+          <t>('Recollect', ['{2}{G}', 'Sorcery', 'Return target card from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Target opponent sacrifices a creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Disenchant</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Destroy target artifact or enchantment.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Mortify</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{1}{W}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Destroy target creature or enchantment.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Psionic Blast</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Psionic Blast deals 4 damage to any target and 2 damage to you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Recollect</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Return target card from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Wrath of God</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{2}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Destroy all creatures. They can’t be regenerated.</t>
+          <t>('Wrath of God', ['{2}{W}{W}', 'Sorcery', 'Destroy all creatures. They can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
